--- a/log/DailyResult/DailyResult_2024-08-22.xlsx
+++ b/log/DailyResult/DailyResult_2024-08-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BO5"/>
+  <dimension ref="A1:BO6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1442,28 +1442,20 @@
       <c r="D5" t="n">
         <v>4.37</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
+      <c r="E5" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4.37</v>
       </c>
       <c r="G5" t="n">
         <v>4.37</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>-0.48</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>302</t>
-        </is>
+      <c r="H5" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="I5" t="n">
+        <v>302</v>
       </c>
       <c r="J5" t="n">
         <v>2024</v>
@@ -1636,10 +1628,8 @@
       <c r="BJ5" t="b">
         <v>0</v>
       </c>
-      <c r="BK5" t="inlineStr">
-        <is>
-          <t>4804</t>
-        </is>
+      <c r="BK5" t="n">
+        <v>4804</v>
       </c>
       <c r="BL5" t="n">
         <v>0.5</v>
@@ -1653,6 +1643,235 @@
         <v>4.193439348129985</v>
       </c>
       <c r="BO5" t="n">
+        <v>7.136840550088845</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024/08/22</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>495</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2164</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-0.48</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>08/22</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>2024/08/22</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2024/08/22</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>4.757137236920628</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4.824721286897432</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.06758404997680412</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.01933119711661145</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-0.01933119711661145</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-0.04825285286019267</v>
+      </c>
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="V6" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>51.16678105696636</v>
+      </c>
+      <c r="Y6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1362.05</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1451.32</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>-6.150952236584625</v>
+      </c>
+      <c r="AC6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>4.676</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>4.796</v>
+      </c>
+      <c r="AF6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.1596608906400691</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.1820519156724347</v>
+      </c>
+      <c r="AI6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>-0.1200000000000001</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>-0.08949999999999925</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>4.796</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.3477203958417557</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>5.491440791683512</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>4.100559208316489</v>
+      </c>
+      <c r="AP6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>37.2549019607843</v>
+      </c>
+      <c r="AR6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>-0.4799999999999995</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>-2164</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>-1148</v>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="AW6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>&lt;span style='color:green;'&gt;[股價低於短期均線，短期均線低於長期均線]：賣出信號&lt;/span&gt;&lt;br&gt;均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>-0.025</v>
+      </c>
+      <c r="BC6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="inlineStr">
+        <is>
+          <t>均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="BF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0.02333333333333333</v>
+      </c>
+      <c r="BJ6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK6" t="inlineStr">
+        <is>
+          <t>4804</t>
+        </is>
+      </c>
+      <c r="BL6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BM6" t="inlineStr">
+        <is>
+          <t>負區間</t>
+        </is>
+      </c>
+      <c r="BN6" t="n">
+        <v>4.193439348129985</v>
+      </c>
+      <c r="BO6" t="n">
         <v>7.136840550088845</v>
       </c>
     </row>
